--- a/docs/BASE DE DATOS PERSONAL11_JULIO.xlsx
+++ b/docs/BASE DE DATOS PERSONAL11_JULIO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PAE MEDELLIN 2022\FORMATOS 2022\BD PERSONAL PAE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proyects\mede-paes-ui\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011FF9AE-865B-42AD-BC7C-9FB503B30FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base de datos general" sheetId="1" state="hidden" r:id="rId1"/>
@@ -51,7 +50,7 @@
     <definedName name="Z_EA056653_F3D4_4546_825F_F6D7C553DF6E_.wvu.FilterData" localSheetId="0" hidden="1">'Base de datos general'!$A$1:$AE$81</definedName>
     <definedName name="Z_EA056653_F3D4_4546_825F_F6D7C553DF6E_.wvu.FilterData" localSheetId="1" hidden="1">EJECUTORES_CAMPO_SISTEMAS!$A$1:$AC$60</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
     <customWorkbookView name="Filtro 3" guid="{14F3EE62-D485-439C-81DC-45322C3B607F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filtro 2" guid="{66450AAA-3A83-4A50-836D-F5760BDFE6B4}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
@@ -85,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="378">
   <si>
     <t>No.</t>
   </si>
@@ -1033,12 +1032,198 @@
   </si>
   <si>
     <t>ANGELICA ZAMBRANO ORTEGA</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>gcristinacz</t>
+  </si>
+  <si>
+    <t>adescansev</t>
+  </si>
+  <si>
+    <t>ladrianaas</t>
+  </si>
+  <si>
+    <t>amariata</t>
+  </si>
+  <si>
+    <t>jalbeiroyc</t>
+  </si>
+  <si>
+    <t>alejandracav</t>
+  </si>
+  <si>
+    <t>atamayov</t>
+  </si>
+  <si>
+    <t>dmariaff</t>
+  </si>
+  <si>
+    <t>amauriciomh</t>
+  </si>
+  <si>
+    <t>amariajh</t>
+  </si>
+  <si>
+    <t>aeugeniavg</t>
+  </si>
+  <si>
+    <t>acarolinags</t>
+  </si>
+  <si>
+    <t>meugeniazm</t>
+  </si>
+  <si>
+    <t>evivianasz</t>
+  </si>
+  <si>
+    <t>lestelazj</t>
+  </si>
+  <si>
+    <t>lfelipera</t>
+  </si>
+  <si>
+    <t>mangeluv</t>
+  </si>
+  <si>
+    <t>jpablosf</t>
+  </si>
+  <si>
+    <t>hcarlosfr</t>
+  </si>
+  <si>
+    <t>lpatriciamo</t>
+  </si>
+  <si>
+    <t>lpatriciacr</t>
+  </si>
+  <si>
+    <t>jjaramillov</t>
+  </si>
+  <si>
+    <t>pandreauy</t>
+  </si>
+  <si>
+    <t>edelpp</t>
+  </si>
+  <si>
+    <t>sandréspm</t>
+  </si>
+  <si>
+    <t>lmarinajd</t>
+  </si>
+  <si>
+    <t>vpinov</t>
+  </si>
+  <si>
+    <t>ralonsoog</t>
+  </si>
+  <si>
+    <t>slucíaab</t>
+  </si>
+  <si>
+    <t>cpatriciamt</t>
+  </si>
+  <si>
+    <t>salbertovc</t>
+  </si>
+  <si>
+    <t>aalbertora</t>
+  </si>
+  <si>
+    <t>earleyqy</t>
+  </si>
+  <si>
+    <t>gemilcengl</t>
+  </si>
+  <si>
+    <t>saugustoqs</t>
+  </si>
+  <si>
+    <t>jalejandroac</t>
+  </si>
+  <si>
+    <t>jestebandc</t>
+  </si>
+  <si>
+    <t>lcarlosc</t>
+  </si>
+  <si>
+    <t>odarioga</t>
+  </si>
+  <si>
+    <t>salbertosg</t>
+  </si>
+  <si>
+    <t>warturopv</t>
+  </si>
+  <si>
+    <t>azambranoi</t>
+  </si>
+  <si>
+    <t>ycorralesc</t>
+  </si>
+  <si>
+    <t>beatrizevr</t>
+  </si>
+  <si>
+    <t>mduquev</t>
+  </si>
+  <si>
+    <t>ggarciav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claudiapez </t>
+  </si>
+  <si>
+    <t>erikaygh</t>
+  </si>
+  <si>
+    <t>hdariorc</t>
+  </si>
+  <si>
+    <t>isabelcrc</t>
+  </si>
+  <si>
+    <t>juancbp</t>
+  </si>
+  <si>
+    <t>miryamntp</t>
+  </si>
+  <si>
+    <t>monicapce</t>
+  </si>
+  <si>
+    <t>juancvl</t>
+  </si>
+  <si>
+    <t>josejvl</t>
+  </si>
+  <si>
+    <t>carmenivc</t>
+  </si>
+  <si>
+    <t>mlivandycv</t>
+  </si>
+  <si>
+    <t>luzara</t>
+  </si>
+  <si>
+    <t>edwinadh</t>
+  </si>
+  <si>
+    <t>marcelalm</t>
+  </si>
+  <si>
+    <t>sgiraldog</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -1105,7 +1290,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1194,6 +1379,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFB4C6E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1286,7 +1489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1496,9 +1699,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1514,9 +1714,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1541,6 +1738,55 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2349,7 +2595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE81"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -2359,19 +2605,19 @@
       <selection pane="bottomRight" activeCell="AD13" sqref="AD13:AD62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.88671875" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" customWidth="1"/>
-    <col min="7" max="19" width="35.6640625" customWidth="1"/>
-    <col min="20" max="20" width="26.44140625" customWidth="1"/>
-    <col min="28" max="28" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="19" width="35.7109375" customWidth="1"/>
+    <col min="20" max="20" width="26.42578125" customWidth="1"/>
+    <col min="28" max="28" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2458,7 +2704,7 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
     </row>
-    <row r="2" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2507,7 +2753,7 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
     </row>
-    <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2556,7 +2802,7 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
     </row>
-    <row r="4" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2607,7 +2853,7 @@
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
     </row>
-    <row r="5" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>190</v>
       </c>
@@ -2661,7 +2907,7 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="6" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>191</v>
       </c>
@@ -2714,7 +2960,7 @@
       <c r="AD6" s="17"/>
       <c r="AE6" s="17"/>
     </row>
-    <row r="7" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -2766,7 +3012,7 @@
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
     </row>
-    <row r="8" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -2826,7 +3072,7 @@
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
     </row>
-    <row r="9" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2878,7 +3124,7 @@
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
     </row>
-    <row r="10" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -2930,7 +3176,7 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
     </row>
-    <row r="11" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -2994,7 +3240,7 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
     </row>
-    <row r="12" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -3046,7 +3292,7 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
     </row>
-    <row r="13" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>11</v>
       </c>
@@ -3102,7 +3348,7 @@
       </c>
       <c r="AE13" s="63"/>
     </row>
-    <row r="14" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>12</v>
       </c>
@@ -3158,7 +3404,7 @@
       </c>
       <c r="AE14" s="63"/>
     </row>
-    <row r="15" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>13</v>
       </c>
@@ -3214,7 +3460,7 @@
       </c>
       <c r="AE15" s="63"/>
     </row>
-    <row r="16" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>14</v>
       </c>
@@ -3270,7 +3516,7 @@
       </c>
       <c r="AE16" s="63"/>
     </row>
-    <row r="17" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>15</v>
       </c>
@@ -3326,7 +3572,7 @@
       </c>
       <c r="AE17" s="63"/>
     </row>
-    <row r="18" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>16</v>
       </c>
@@ -3382,7 +3628,7 @@
       </c>
       <c r="AE18" s="63"/>
     </row>
-    <row r="19" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>17</v>
       </c>
@@ -3438,7 +3684,7 @@
       </c>
       <c r="AE19" s="63"/>
     </row>
-    <row r="20" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>18</v>
       </c>
@@ -3494,7 +3740,7 @@
       </c>
       <c r="AE20" s="63"/>
     </row>
-    <row r="21" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>19</v>
       </c>
@@ -3550,7 +3796,7 @@
       </c>
       <c r="AE21" s="63"/>
     </row>
-    <row r="22" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>20</v>
       </c>
@@ -3614,7 +3860,7 @@
       </c>
       <c r="AE22" s="63"/>
     </row>
-    <row r="23" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>21</v>
       </c>
@@ -3694,7 +3940,7 @@
       </c>
       <c r="AE23" s="63"/>
     </row>
-    <row r="24" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>22</v>
       </c>
@@ -3750,7 +3996,7 @@
       </c>
       <c r="AE24" s="63"/>
     </row>
-    <row r="25" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>23</v>
       </c>
@@ -3806,7 +4052,7 @@
       </c>
       <c r="AE25" s="63"/>
     </row>
-    <row r="26" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>24</v>
       </c>
@@ -3862,7 +4108,7 @@
       </c>
       <c r="AE26" s="63"/>
     </row>
-    <row r="27" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>25</v>
       </c>
@@ -3918,7 +4164,7 @@
       </c>
       <c r="AE27" s="63"/>
     </row>
-    <row r="28" spans="1:31" s="64" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" s="64" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>26</v>
       </c>
@@ -3974,7 +4220,7 @@
       </c>
       <c r="AE28" s="63"/>
     </row>
-    <row r="29" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>27</v>
       </c>
@@ -4042,7 +4288,7 @@
       </c>
       <c r="AE29" s="63"/>
     </row>
-    <row r="30" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>28</v>
       </c>
@@ -4098,7 +4344,7 @@
       </c>
       <c r="AE30" s="63"/>
     </row>
-    <row r="31" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>29</v>
       </c>
@@ -4154,7 +4400,7 @@
       </c>
       <c r="AE31" s="63"/>
     </row>
-    <row r="32" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>30</v>
       </c>
@@ -4210,7 +4456,7 @@
       </c>
       <c r="AE32" s="63"/>
     </row>
-    <row r="33" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>31</v>
       </c>
@@ -4276,7 +4522,7 @@
       </c>
       <c r="AE33" s="63"/>
     </row>
-    <row r="34" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>32</v>
       </c>
@@ -4332,7 +4578,7 @@
       </c>
       <c r="AE34" s="63"/>
     </row>
-    <row r="35" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>33</v>
       </c>
@@ -4388,7 +4634,7 @@
       </c>
       <c r="AE35" s="63"/>
     </row>
-    <row r="36" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>34</v>
       </c>
@@ -4451,7 +4697,7 @@
       </c>
       <c r="AE36" s="63"/>
     </row>
-    <row r="37" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>35</v>
       </c>
@@ -4507,7 +4753,7 @@
       </c>
       <c r="AE37" s="63"/>
     </row>
-    <row r="38" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>36</v>
       </c>
@@ -4563,7 +4809,7 @@
       </c>
       <c r="AE38" s="63"/>
     </row>
-    <row r="39" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>37</v>
       </c>
@@ -4619,7 +4865,7 @@
       </c>
       <c r="AE39" s="63"/>
     </row>
-    <row r="40" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>38</v>
       </c>
@@ -4675,7 +4921,7 @@
       </c>
       <c r="AE40" s="63"/>
     </row>
-    <row r="41" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>39</v>
       </c>
@@ -4731,7 +4977,7 @@
       </c>
       <c r="AE41" s="63"/>
     </row>
-    <row r="42" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>40</v>
       </c>
@@ -4787,7 +5033,7 @@
       </c>
       <c r="AE42" s="63"/>
     </row>
-    <row r="43" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="55">
         <v>41</v>
       </c>
@@ -4845,7 +5091,7 @@
       </c>
       <c r="AE43" s="63"/>
     </row>
-    <row r="44" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="55">
         <v>42</v>
       </c>
@@ -4901,7 +5147,7 @@
       </c>
       <c r="AE44" s="63"/>
     </row>
-    <row r="45" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="55">
         <v>43</v>
       </c>
@@ -4957,7 +5203,7 @@
       </c>
       <c r="AE45" s="63"/>
     </row>
-    <row r="46" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="55">
         <v>44</v>
       </c>
@@ -5013,7 +5259,7 @@
       </c>
       <c r="AE46" s="63"/>
     </row>
-    <row r="47" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="55">
         <v>45</v>
       </c>
@@ -5069,7 +5315,7 @@
       </c>
       <c r="AE47" s="63"/>
     </row>
-    <row r="48" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="55">
         <v>46</v>
       </c>
@@ -5125,7 +5371,7 @@
       </c>
       <c r="AE48" s="63"/>
     </row>
-    <row r="49" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="55">
         <v>47</v>
       </c>
@@ -5181,7 +5427,7 @@
       </c>
       <c r="AE49" s="63"/>
     </row>
-    <row r="50" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="55">
         <v>48</v>
       </c>
@@ -5237,7 +5483,7 @@
       </c>
       <c r="AE50" s="63"/>
     </row>
-    <row r="51" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="80" t="s">
         <v>194</v>
       </c>
@@ -5295,7 +5541,7 @@
       </c>
       <c r="AE51" s="63"/>
     </row>
-    <row r="52" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="55">
         <v>50</v>
       </c>
@@ -5351,7 +5597,7 @@
       </c>
       <c r="AE52" s="63"/>
     </row>
-    <row r="53" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="55">
         <v>51</v>
       </c>
@@ -5407,7 +5653,7 @@
       </c>
       <c r="AE53" s="63"/>
     </row>
-    <row r="54" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="55">
         <v>52</v>
       </c>
@@ -5463,7 +5709,7 @@
       </c>
       <c r="AE54" s="63"/>
     </row>
-    <row r="55" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="55">
         <v>53</v>
       </c>
@@ -5519,7 +5765,7 @@
       </c>
       <c r="AE55" s="63"/>
     </row>
-    <row r="56" spans="1:31" s="64" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="55">
         <v>54</v>
       </c>
@@ -5577,7 +5823,7 @@
       </c>
       <c r="AE56" s="63"/>
     </row>
-    <row r="57" spans="1:31" s="64" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="55">
         <v>55</v>
       </c>
@@ -5635,7 +5881,7 @@
       </c>
       <c r="AE57" s="63"/>
     </row>
-    <row r="58" spans="1:31" s="64" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="55">
         <v>56</v>
       </c>
@@ -5691,7 +5937,7 @@
       </c>
       <c r="AE58" s="63"/>
     </row>
-    <row r="59" spans="1:31" s="64" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="55">
         <v>57</v>
       </c>
@@ -5749,7 +5995,7 @@
       </c>
       <c r="AE59" s="63"/>
     </row>
-    <row r="60" spans="1:31" s="64" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="55">
         <v>58</v>
       </c>
@@ -5807,7 +6053,7 @@
       </c>
       <c r="AE60" s="63"/>
     </row>
-    <row r="61" spans="1:31" s="64" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="55">
         <v>59</v>
       </c>
@@ -5865,7 +6111,7 @@
       </c>
       <c r="AE61" s="63"/>
     </row>
-    <row r="62" spans="1:31" s="64" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="55">
         <v>60</v>
       </c>
@@ -5923,7 +6169,7 @@
       </c>
       <c r="AE62" s="63"/>
     </row>
-    <row r="63" spans="1:31" s="52" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
         <v>61</v>
       </c>
@@ -5972,7 +6218,7 @@
       <c r="AD63" s="51"/>
       <c r="AE63" s="51"/>
     </row>
-    <row r="64" spans="1:31" s="52" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
         <v>62</v>
       </c>
@@ -6021,7 +6267,7 @@
       <c r="AD64" s="51"/>
       <c r="AE64" s="51"/>
     </row>
-    <row r="65" spans="1:31" s="52" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
         <v>63</v>
       </c>
@@ -6070,7 +6316,7 @@
       <c r="AD65" s="51"/>
       <c r="AE65" s="51"/>
     </row>
-    <row r="66" spans="1:31" s="52" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
         <v>64</v>
       </c>
@@ -6119,7 +6365,7 @@
       <c r="AD66" s="51"/>
       <c r="AE66" s="51"/>
     </row>
-    <row r="67" spans="1:31" s="52" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="42">
         <v>65</v>
       </c>
@@ -6168,7 +6414,7 @@
       <c r="AD67" s="51"/>
       <c r="AE67" s="51"/>
     </row>
-    <row r="68" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>66</v>
       </c>
@@ -6220,7 +6466,7 @@
       <c r="AD68" s="3"/>
       <c r="AE68" s="3"/>
     </row>
-    <row r="69" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>67</v>
       </c>
@@ -6272,7 +6518,7 @@
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
     </row>
-    <row r="70" spans="1:31" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:31" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
         <v>68</v>
       </c>
@@ -6324,7 +6570,7 @@
       <c r="AD70" s="51"/>
       <c r="AE70" s="51"/>
     </row>
-    <row r="71" spans="1:31" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:31" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
         <v>69</v>
       </c>
@@ -6376,7 +6622,7 @@
       <c r="AD71" s="51"/>
       <c r="AE71" s="51"/>
     </row>
-    <row r="72" spans="1:31" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:31" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="42">
         <v>70</v>
       </c>
@@ -6432,7 +6678,7 @@
       <c r="AD72" s="51"/>
       <c r="AE72" s="51"/>
     </row>
-    <row r="73" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>71</v>
       </c>
@@ -6507,7 +6753,7 @@
       <c r="AD73" s="3"/>
       <c r="AE73" s="3"/>
     </row>
-    <row r="74" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>72</v>
       </c>
@@ -6566,7 +6812,7 @@
       <c r="AD74" s="3"/>
       <c r="AE74" s="3"/>
     </row>
-    <row r="75" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>73</v>
       </c>
@@ -6617,7 +6863,7 @@
       <c r="AD75" s="3"/>
       <c r="AE75" s="3"/>
     </row>
-    <row r="76" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>74</v>
       </c>
@@ -6668,7 +6914,7 @@
       <c r="AD76" s="3"/>
       <c r="AE76" s="3"/>
     </row>
-    <row r="77" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>75</v>
       </c>
@@ -6720,7 +6966,7 @@
       <c r="AD77" s="3"/>
       <c r="AE77" s="3"/>
     </row>
-    <row r="78" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>76</v>
       </c>
@@ -6772,7 +7018,7 @@
       <c r="AD78" s="3"/>
       <c r="AE78" s="3"/>
     </row>
-    <row r="79" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>77</v>
       </c>
@@ -6850,7 +7096,7 @@
       <c r="AD79" s="3"/>
       <c r="AE79" s="3"/>
     </row>
-    <row r="80" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>78</v>
       </c>
@@ -6926,7 +7172,7 @@
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
     </row>
-    <row r="81" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>79</v>
       </c>
@@ -7001,11 +7247,11 @@
       <c r="AE81" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE81" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AE81"/>
   <customSheetViews>
     <customSheetView guid="{BCA79F02-B1B7-40C1-9791-9087A49FED3D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:N992" xr:uid="{AB0E7D9B-4A98-4BB0-99B9-73A359CB72DB}"/>
+      <autoFilter ref="A1:N992"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="69007766"/>
@@ -7014,7 +7260,7 @@
     </customSheetView>
     <customSheetView guid="{BA5BEB47-066B-4B55-B8BF-EC7F34450BFE}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:N992" xr:uid="{ED40172C-82E7-4A99-AC6A-D9E2A73B8E82}"/>
+      <autoFilter ref="A1:N992"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="628075788"/>
@@ -7023,7 +7269,7 @@
     </customSheetView>
     <customSheetView guid="{262C6D00-4C4B-4A4E-993E-D5D4F97FEAA9}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:N992" xr:uid="{70F17ADF-FD4A-4B37-8BD7-3DB2CED2E818}">
+      <autoFilter ref="A1:N992">
         <filterColumn colId="1">
           <filters>
             <filter val="ANDRES DESCANSE VARGAS"/>
@@ -7071,7 +7317,7 @@
     </customSheetView>
     <customSheetView guid="{D85A10F2-7C8E-4922-9C08-23FB1A6B462A}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:N992" xr:uid="{934CB1C4-E905-414B-B548-FA2ECDAE5A17}">
+      <autoFilter ref="A1:N992">
         <filterColumn colId="3">
           <filters>
             <filter val="TECNÓLOGO ADMINISTRATIVO"/>
@@ -7087,7 +7333,7 @@
     </customSheetView>
     <customSheetView guid="{AAB4A524-D101-4E3E-989E-67638CBBC871}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:N992" xr:uid="{4D210203-D465-4A69-92C4-504304AC65E7}"/>
+      <autoFilter ref="A1:N992"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="329629961"/>
@@ -7096,7 +7342,7 @@
     </customSheetView>
     <customSheetView guid="{14F3EE62-D485-439C-81DC-45322C3B607F}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:J992" xr:uid="{64C8BD99-EF2A-4338-A410-D42F4A217549}">
+      <autoFilter ref="A1:J992">
         <filterColumn colId="1">
           <filters>
             <filter val="ANDRES DESCANSE VARGAS"/>
@@ -7144,7 +7390,7 @@
     </customSheetView>
     <customSheetView guid="{66450AAA-3A83-4A50-836D-F5760BDFE6B4}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:N992" xr:uid="{04182BC8-7BAC-4954-A46A-F4570A58ED57}">
+      <autoFilter ref="A1:N992">
         <filterColumn colId="1">
           <filters>
             <filter val="ANDRES DESCANSE VARGAS"/>
@@ -7192,7 +7438,7 @@
     </customSheetView>
     <customSheetView guid="{E361C019-4C39-42AE-BF72-A4216AECE7FB}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:M157" xr:uid="{AA0EF52A-5C79-4E93-AE34-C77257D8C16E}">
+      <autoFilter ref="A1:M157">
         <filterColumn colId="1">
           <filters>
             <filter val="ANDRES DESCANSE VARGAS"/>
@@ -7241,7 +7487,7 @@
     </customSheetView>
     <customSheetView guid="{A5E6DF13-1CB6-488C-8D29-B5BE722EA76F}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:N992" xr:uid="{5675C7A5-FC36-468B-B7ED-E13508BEF9F7}">
+      <autoFilter ref="A1:N992">
         <filterColumn colId="3">
           <filters>
             <filter val="INTERVENTOR EJECUTOR DE PLANTA"/>
@@ -7256,7 +7502,7 @@
     </customSheetView>
     <customSheetView guid="{26DFE0F3-16CF-4795-B3AF-D992082933CA}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:N992" xr:uid="{3740D4C9-62F9-4B23-9F42-C839749F31DB}"/>
+      <autoFilter ref="A1:N992"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="146256416"/>
@@ -7265,7 +7511,7 @@
     </customSheetView>
     <customSheetView guid="{EA056653-F3D4-4546-825F-F6D7C553DF6E}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:N992" xr:uid="{62BC4EAC-EA9D-449F-BDF6-F1C4A32B7266}">
+      <autoFilter ref="A1:N992">
         <filterColumn colId="1">
           <filters>
             <filter val="ANTONIO ALBERTO RAMOS AGAMEZ"/>
@@ -7298,7 +7544,7 @@
     </customSheetView>
     <customSheetView guid="{11E54C9E-C74A-444A-B521-1FBB6FB9A49C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:N992" xr:uid="{A5080543-AB4B-4039-945F-C598F1B87EAD}"/>
+      <autoFilter ref="A1:N992"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1294765166"/>
@@ -7307,7 +7553,7 @@
     </customSheetView>
     <customSheetView guid="{A3F1E2BF-48E9-410C-AD06-952AD0F246BA}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:J992" xr:uid="{13DF76C8-C931-40A1-B1C2-3797DACE2600}">
+      <autoFilter ref="A1:J992">
         <filterColumn colId="1">
           <filters>
             <filter val="ANDRES DESCANSE VARGAS"/>
@@ -7356,7 +7602,7 @@
     </customSheetView>
     <customSheetView guid="{3C7D9BED-E1D8-4648-84D0-2174A8F0F1F0}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:N992" xr:uid="{4C99E904-A3BB-44DE-A705-CE4CA0948683}"/>
+      <autoFilter ref="A1:N992"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1141445627"/>
@@ -7365,13 +7611,13 @@
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F51" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G74" r:id="rId4" xr:uid="{6E65B36D-56B5-4E75-BBCF-6C628067770C}"/>
-    <hyperlink ref="G75" r:id="rId5" xr:uid="{F4E6F7E7-8064-4D0A-8199-B4D9DB5275BA}"/>
-    <hyperlink ref="G76" r:id="rId6" xr:uid="{A731F26A-3A31-498B-B417-F95CA8F88C8F}"/>
-    <hyperlink ref="G73" r:id="rId7" xr:uid="{0B3F0AE7-8F87-4D2C-8CD7-60A9739B09D8}"/>
+    <hyperlink ref="F10" r:id="rId1"/>
+    <hyperlink ref="F12" r:id="rId2"/>
+    <hyperlink ref="F51" r:id="rId3"/>
+    <hyperlink ref="G74" r:id="rId4"/>
+    <hyperlink ref="G75" r:id="rId5"/>
+    <hyperlink ref="G76" r:id="rId6"/>
+    <hyperlink ref="G73" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -7379,50 +7625,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA799AA-811E-487A-93BB-DE5EDD8B6D0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomRight" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.88671875" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" customWidth="1"/>
-    <col min="8" max="19" width="35.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="26.44140625" hidden="1" customWidth="1"/>
-    <col min="21" max="27" width="14.44140625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="23" style="125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="28.42578125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="19" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="16" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="12" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="14" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="19" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:29" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="106" t="s">
         <v>205</v>
       </c>
       <c r="H1" s="32" t="s">
@@ -7483,117 +7746,123 @@
         <v>183</v>
       </c>
       <c r="AA1" s="20"/>
-      <c r="AB1" s="103" t="s">
+      <c r="AB1" s="101" t="s">
         <v>253</v>
       </c>
-      <c r="AC1" s="17"/>
-    </row>
-    <row r="2" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55">
+      <c r="AC1" s="17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="116" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="107">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="119">
         <v>43278547</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="55">
+      <c r="E2" s="107">
         <v>3122606734</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="60" t="s">
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="61"/>
-      <c r="V2" s="62">
-        <v>44748</v>
-      </c>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="87" t="s">
+      <c r="U2" s="112"/>
+      <c r="V2" s="113">
+        <v>44748</v>
+      </c>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="AC2" s="63"/>
-    </row>
-    <row r="3" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55">
+      <c r="AC2" s="115" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="116" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="107">
         <v>2</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="119">
         <v>8129742</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="107">
         <v>3225692775</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="60" t="s">
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="61"/>
-      <c r="V3" s="62">
-        <v>44748</v>
-      </c>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="87" t="s">
+      <c r="U3" s="112"/>
+      <c r="V3" s="113">
+        <v>44748</v>
+      </c>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="112"/>
+      <c r="AB3" s="114" t="s">
         <v>256</v>
       </c>
-      <c r="AC3" s="63"/>
-    </row>
-    <row r="4" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC3" s="115" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="55">
         <v>3</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="120">
         <v>43613208</v>
       </c>
       <c r="D4" s="56" t="s">
@@ -7633,16 +7902,18 @@
       <c r="AB4" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="AC4" s="63"/>
-    </row>
-    <row r="5" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC4" s="63" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="55">
         <v>4</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="120">
         <v>43670201</v>
       </c>
       <c r="D5" s="56" t="s">
@@ -7682,16 +7953,18 @@
       <c r="AB5" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="AC5" s="63"/>
-    </row>
-    <row r="6" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC5" s="63" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="55">
         <v>5</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="120">
         <v>98547058</v>
       </c>
       <c r="D6" s="56" t="s">
@@ -7731,16 +8004,18 @@
       <c r="AB6" s="87" t="s">
         <v>259</v>
       </c>
-      <c r="AC6" s="63"/>
-    </row>
-    <row r="7" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC6" s="63" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>6</v>
       </c>
       <c r="B7" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="120">
         <v>43202716</v>
       </c>
       <c r="D7" s="56" t="s">
@@ -7780,16 +8055,18 @@
       <c r="AB7" s="87" t="s">
         <v>260</v>
       </c>
-      <c r="AC7" s="63"/>
-    </row>
-    <row r="8" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC7" s="63" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>7</v>
       </c>
       <c r="B8" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="120">
         <v>43750480</v>
       </c>
       <c r="D8" s="56" t="s">
@@ -7829,16 +8106,18 @@
       <c r="AB8" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="AC8" s="63"/>
-    </row>
-    <row r="9" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC8" s="63" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>8</v>
       </c>
       <c r="B9" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="120">
         <v>43817501</v>
       </c>
       <c r="D9" s="56" t="s">
@@ -7878,16 +8157,18 @@
       <c r="AB9" s="87" t="s">
         <v>262</v>
       </c>
-      <c r="AC9" s="63"/>
-    </row>
-    <row r="10" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC9" s="63" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>9</v>
       </c>
       <c r="B10" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="120">
         <v>1036601215</v>
       </c>
       <c r="D10" s="56" t="s">
@@ -7927,16 +8208,18 @@
       <c r="AB10" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="AC10" s="63"/>
-    </row>
-    <row r="11" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC10" s="63" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>10</v>
       </c>
       <c r="B11" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="120">
         <v>43274580</v>
       </c>
       <c r="D11" s="56" t="s">
@@ -7984,16 +8267,18 @@
       <c r="AB11" s="87" t="s">
         <v>264</v>
       </c>
-      <c r="AC11" s="63"/>
-    </row>
-    <row r="12" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC11" s="63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55">
         <v>11</v>
       </c>
       <c r="B12" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="120">
         <v>1020401790</v>
       </c>
       <c r="D12" s="56" t="s">
@@ -8057,16 +8342,18 @@
       <c r="AB12" s="87" t="s">
         <v>265</v>
       </c>
-      <c r="AC12" s="63"/>
-    </row>
-    <row r="13" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC12" s="63" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55">
         <v>12</v>
       </c>
       <c r="B13" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="120">
         <v>43706949</v>
       </c>
       <c r="D13" s="56" t="s">
@@ -8106,16 +8393,18 @@
       <c r="AB13" s="87" t="s">
         <v>266</v>
       </c>
-      <c r="AC13" s="63"/>
-    </row>
-    <row r="14" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC13" s="63" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55">
         <v>13</v>
       </c>
       <c r="B14" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="120">
         <v>1041228656</v>
       </c>
       <c r="D14" s="56" t="s">
@@ -8155,16 +8444,18 @@
       <c r="AB14" s="87" t="s">
         <v>267</v>
       </c>
-      <c r="AC14" s="63"/>
-    </row>
-    <row r="15" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC14" s="63" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55">
         <v>14</v>
       </c>
       <c r="B15" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="120">
         <v>42785489</v>
       </c>
       <c r="D15" s="56" t="s">
@@ -8204,16 +8495,18 @@
       <c r="AB15" s="87" t="s">
         <v>268</v>
       </c>
-      <c r="AC15" s="63"/>
-    </row>
-    <row r="16" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC15" s="63" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="55">
         <v>15</v>
       </c>
       <c r="B16" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="120">
         <v>56078331</v>
       </c>
       <c r="D16" s="56" t="s">
@@ -8253,16 +8546,18 @@
       <c r="AB16" s="87" t="s">
         <v>269</v>
       </c>
-      <c r="AC16" s="63"/>
-    </row>
-    <row r="17" spans="1:29" s="64" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC16" s="63" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="64" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55">
         <v>16</v>
       </c>
       <c r="B17" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="120">
         <v>71763839</v>
       </c>
       <c r="D17" s="56" t="s">
@@ -8302,16 +8597,18 @@
       <c r="AB17" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="AC17" s="63"/>
-    </row>
-    <row r="18" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC17" s="63" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55">
         <v>17</v>
       </c>
       <c r="B18" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="120">
         <v>32141693</v>
       </c>
       <c r="D18" s="56" t="s">
@@ -8363,16 +8660,18 @@
       <c r="AB18" s="87" t="s">
         <v>271</v>
       </c>
-      <c r="AC18" s="63"/>
-    </row>
-    <row r="19" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC18" s="63" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55">
         <v>18</v>
       </c>
       <c r="B19" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="120">
         <v>43873792</v>
       </c>
       <c r="D19" s="56" t="s">
@@ -8412,16 +8711,18 @@
       <c r="AB19" s="87" t="s">
         <v>272</v>
       </c>
-      <c r="AC19" s="63"/>
-    </row>
-    <row r="20" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC19" s="63" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55">
         <v>19</v>
       </c>
       <c r="B20" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="120">
         <v>43507756</v>
       </c>
       <c r="D20" s="56" t="s">
@@ -8461,16 +8762,18 @@
       <c r="AB20" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="AC20" s="63"/>
-    </row>
-    <row r="21" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC20" s="63" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55">
         <v>20</v>
       </c>
       <c r="B21" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="120">
         <v>71794193</v>
       </c>
       <c r="D21" s="56" t="s">
@@ -8510,16 +8813,18 @@
       <c r="AB21" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="AC21" s="63"/>
-    </row>
-    <row r="22" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC21" s="63" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>21</v>
       </c>
       <c r="B22" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="121">
         <v>80065608</v>
       </c>
       <c r="D22" s="72" t="s">
@@ -8569,16 +8874,18 @@
       <c r="AB22" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="AC22" s="63"/>
-    </row>
-    <row r="23" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC22" s="63" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55">
         <v>22</v>
       </c>
       <c r="B23" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="120">
         <v>71796879</v>
       </c>
       <c r="D23" s="56" t="s">
@@ -8618,16 +8925,18 @@
       <c r="AB23" s="87" t="s">
         <v>276</v>
       </c>
-      <c r="AC23" s="63"/>
-    </row>
-    <row r="24" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC23" s="63" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="55">
         <v>23</v>
       </c>
       <c r="B24" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="120">
         <v>1020392575</v>
       </c>
       <c r="D24" s="56" t="s">
@@ -8667,16 +8976,18 @@
       <c r="AB24" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="AC24" s="63"/>
-    </row>
-    <row r="25" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC24" s="63" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="55">
         <v>24</v>
       </c>
       <c r="B25" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="120">
         <v>21527845</v>
       </c>
       <c r="D25" s="56" t="s">
@@ -8723,16 +9034,18 @@
       <c r="AB25" s="87" t="s">
         <v>278</v>
       </c>
-      <c r="AC25" s="63"/>
-    </row>
-    <row r="26" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC25" s="63" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="55">
         <v>25</v>
       </c>
       <c r="B26" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="120">
         <v>78747466</v>
       </c>
       <c r="D26" s="56" t="s">
@@ -8772,16 +9085,18 @@
       <c r="AB26" s="87" t="s">
         <v>279</v>
       </c>
-      <c r="AC26" s="63"/>
-    </row>
-    <row r="27" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC26" s="63" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55">
         <v>26</v>
       </c>
       <c r="B27" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="120">
         <v>98585496</v>
       </c>
       <c r="D27" s="56" t="s">
@@ -8821,16 +9136,18 @@
       <c r="AB27" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="AC27" s="63"/>
-    </row>
-    <row r="28" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC27" s="63" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55">
         <v>27</v>
       </c>
       <c r="B28" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="120">
         <v>43205321</v>
       </c>
       <c r="D28" s="56" t="s">
@@ -8870,16 +9187,18 @@
       <c r="AB28" s="87" t="s">
         <v>281</v>
       </c>
-      <c r="AC28" s="63"/>
-    </row>
-    <row r="29" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC28" s="63" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55">
         <v>28</v>
       </c>
       <c r="B29" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="120">
         <v>71375124</v>
       </c>
       <c r="D29" s="56" t="s">
@@ -8919,16 +9238,18 @@
       <c r="AB29" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="AC29" s="63"/>
-    </row>
-    <row r="30" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC29" s="63" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55">
         <v>29</v>
       </c>
       <c r="B30" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="120">
         <v>43272726</v>
       </c>
       <c r="D30" s="56" t="s">
@@ -8968,16 +9289,18 @@
       <c r="AB30" s="87" t="s">
         <v>283</v>
       </c>
-      <c r="AC30" s="63"/>
-    </row>
-    <row r="31" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC30" s="63" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55">
         <v>30</v>
       </c>
       <c r="B31" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="120">
         <v>1128268635</v>
       </c>
       <c r="D31" s="56" t="s">
@@ -9017,16 +9340,18 @@
       <c r="AB31" s="87" t="s">
         <v>284</v>
       </c>
-      <c r="AC31" s="63"/>
-    </row>
-    <row r="32" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC31" s="63" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55">
         <v>31</v>
       </c>
       <c r="B32" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="73">
+      <c r="C32" s="121">
         <v>78746253</v>
       </c>
       <c r="D32" s="72" t="s">
@@ -9068,16 +9393,18 @@
       <c r="AB32" s="87" t="s">
         <v>285</v>
       </c>
-      <c r="AC32" s="63"/>
-    </row>
-    <row r="33" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC32" s="63" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="55">
         <v>32</v>
       </c>
       <c r="B33" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="57">
+      <c r="C33" s="120">
         <v>43675087</v>
       </c>
       <c r="D33" s="56" t="s">
@@ -9117,16 +9444,18 @@
       <c r="AB33" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="AC33" s="63"/>
-    </row>
-    <row r="34" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC33" s="63" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
         <v>33</v>
       </c>
       <c r="B34" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="57">
+      <c r="C34" s="120">
         <v>43584643</v>
       </c>
       <c r="D34" s="56" t="s">
@@ -9166,16 +9495,18 @@
       <c r="AB34" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="AC34" s="63"/>
-    </row>
-    <row r="35" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC34" s="63" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
         <v>34</v>
       </c>
       <c r="B35" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="57">
+      <c r="C35" s="120">
         <v>15339084</v>
       </c>
       <c r="D35" s="56" t="s">
@@ -9215,16 +9546,18 @@
       <c r="AB35" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="AC35" s="63"/>
-    </row>
-    <row r="36" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC35" s="63" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
         <v>35</v>
       </c>
       <c r="B36" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="57">
+      <c r="C36" s="120">
         <v>43155806</v>
       </c>
       <c r="D36" s="56" t="s">
@@ -9264,16 +9597,18 @@
       <c r="AB36" s="87" t="s">
         <v>289</v>
       </c>
-      <c r="AC36" s="63"/>
-    </row>
-    <row r="37" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC36" s="63" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
         <v>36</v>
       </c>
       <c r="B37" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="57">
+      <c r="C37" s="120">
         <v>1128267136</v>
       </c>
       <c r="D37" s="56" t="s">
@@ -9313,16 +9648,18 @@
       <c r="AB37" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="AC37" s="63"/>
-    </row>
-    <row r="38" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC37" s="63" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
         <v>37</v>
       </c>
       <c r="B38" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="120">
         <v>43907879</v>
       </c>
       <c r="D38" s="56" t="s">
@@ -9362,16 +9699,18 @@
       <c r="AB38" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="AC38" s="63"/>
-    </row>
-    <row r="39" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC38" s="63" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
         <v>38</v>
       </c>
       <c r="B39" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="57">
+      <c r="C39" s="120">
         <v>32532406</v>
       </c>
       <c r="D39" s="56" t="s">
@@ -9411,16 +9750,18 @@
       <c r="AB39" s="87" t="s">
         <v>292</v>
       </c>
-      <c r="AC39" s="63"/>
-    </row>
-    <row r="40" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC39" s="63" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
         <v>39</v>
       </c>
       <c r="B40" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="C40" s="57">
+      <c r="C40" s="120">
         <v>8157132</v>
       </c>
       <c r="D40" s="56" t="s">
@@ -9462,16 +9803,18 @@
       <c r="AB40" s="87" t="s">
         <v>293</v>
       </c>
-      <c r="AC40" s="63"/>
-    </row>
-    <row r="41" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC40" s="63" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
         <v>40</v>
       </c>
       <c r="B41" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="55">
+      <c r="C41" s="120">
         <v>43745875</v>
       </c>
       <c r="D41" s="56" t="s">
@@ -9511,16 +9854,18 @@
       <c r="AB41" s="87" t="s">
         <v>294</v>
       </c>
-      <c r="AC41" s="63"/>
-    </row>
-    <row r="42" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC41" s="63" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
         <v>41</v>
       </c>
       <c r="B42" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="55">
+      <c r="C42" s="120">
         <v>21424735</v>
       </c>
       <c r="D42" s="56" t="s">
@@ -9560,16 +9905,18 @@
       <c r="AB42" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="AC42" s="63"/>
-    </row>
-    <row r="43" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC42" s="63" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="55">
         <v>42</v>
       </c>
       <c r="B43" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="55">
+      <c r="C43" s="120">
         <v>1128278356</v>
       </c>
       <c r="D43" s="56" t="s">
@@ -9609,16 +9956,18 @@
       <c r="AB43" s="87" t="s">
         <v>296</v>
       </c>
-      <c r="AC43" s="63"/>
-    </row>
-    <row r="44" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC43" s="63" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="55">
         <v>43</v>
       </c>
       <c r="B44" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="55">
+      <c r="C44" s="120">
         <v>43828339</v>
       </c>
       <c r="D44" s="56" t="s">
@@ -9658,16 +10007,18 @@
       <c r="AB44" s="87" t="s">
         <v>297</v>
       </c>
-      <c r="AC44" s="63"/>
-    </row>
-    <row r="45" spans="1:29" s="64" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC44" s="63" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="55">
         <v>44</v>
       </c>
       <c r="B45" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="57">
+      <c r="C45" s="120">
         <v>71728657</v>
       </c>
       <c r="D45" s="56" t="s">
@@ -9709,16 +10060,18 @@
       <c r="AB45" s="87" t="s">
         <v>298</v>
       </c>
-      <c r="AC45" s="63"/>
-    </row>
-    <row r="46" spans="1:29" s="64" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC45" s="63" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="55">
         <v>45</v>
       </c>
       <c r="B46" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="57">
+      <c r="C46" s="120">
         <v>42786136</v>
       </c>
       <c r="D46" s="56" t="s">
@@ -9760,16 +10113,18 @@
       <c r="AB46" s="87" t="s">
         <v>299</v>
       </c>
-      <c r="AC46" s="63"/>
-    </row>
-    <row r="47" spans="1:29" s="64" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC46" s="63" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="55">
         <v>46</v>
       </c>
       <c r="B47" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="57">
+      <c r="C47" s="120">
         <v>32336754</v>
       </c>
       <c r="D47" s="56" t="s">
@@ -9809,16 +10164,18 @@
       <c r="AB47" s="87" t="s">
         <v>300</v>
       </c>
-      <c r="AC47" s="63"/>
-    </row>
-    <row r="48" spans="1:29" s="64" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC47" s="63" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="55">
         <v>47</v>
       </c>
       <c r="B48" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="57">
+      <c r="C48" s="120">
         <v>42895395</v>
       </c>
       <c r="D48" s="56" t="s">
@@ -9860,16 +10217,18 @@
       <c r="AB48" s="87" t="s">
         <v>301</v>
       </c>
-      <c r="AC48" s="63"/>
-    </row>
-    <row r="49" spans="1:29" s="64" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC48" s="63" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="55">
         <v>48</v>
       </c>
       <c r="B49" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="C49" s="57">
+      <c r="C49" s="120">
         <v>43361312</v>
       </c>
       <c r="D49" s="56" t="s">
@@ -9911,16 +10270,18 @@
       <c r="AB49" s="87" t="s">
         <v>302</v>
       </c>
-      <c r="AC49" s="63"/>
-    </row>
-    <row r="50" spans="1:29" s="64" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC49" s="63" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="55">
         <v>49</v>
       </c>
       <c r="B50" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="57">
+      <c r="C50" s="120">
         <v>15387713</v>
       </c>
       <c r="D50" s="56" t="s">
@@ -9962,16 +10323,18 @@
       <c r="AB50" s="87" t="s">
         <v>303</v>
       </c>
-      <c r="AC50" s="63"/>
-    </row>
-    <row r="51" spans="1:29" s="64" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC50" s="63" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="55">
         <v>50</v>
       </c>
       <c r="B51" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="57">
+      <c r="C51" s="120">
         <v>8029957</v>
       </c>
       <c r="D51" s="56" t="s">
@@ -10013,16 +10376,18 @@
       <c r="AB51" s="87" t="s">
         <v>304</v>
       </c>
-      <c r="AC51" s="63"/>
-    </row>
-    <row r="52" spans="1:29" s="52" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC51" s="63" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="55">
         <v>51</v>
       </c>
       <c r="B52" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="44">
+      <c r="C52" s="122">
         <v>15374608</v>
       </c>
       <c r="D52" s="43" t="s">
@@ -10062,16 +10427,18 @@
       <c r="AB52" s="88" t="s">
         <v>305</v>
       </c>
-      <c r="AC52" s="51"/>
-    </row>
-    <row r="53" spans="1:29" s="52" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC52" s="51" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="55">
         <v>52</v>
       </c>
       <c r="B53" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="44">
+      <c r="C53" s="122">
         <v>43603765</v>
       </c>
       <c r="D53" s="43" t="s">
@@ -10111,16 +10478,18 @@
       <c r="AB53" s="88" t="s">
         <v>306</v>
       </c>
-      <c r="AC53" s="51"/>
-    </row>
-    <row r="54" spans="1:29" s="52" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC53" s="51" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="55">
         <v>53</v>
       </c>
       <c r="B54" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="C54" s="44">
+      <c r="C54" s="122">
         <v>98603133</v>
       </c>
       <c r="D54" s="43" t="s">
@@ -10160,16 +10529,18 @@
       <c r="AB54" s="88" t="s">
         <v>307</v>
       </c>
-      <c r="AC54" s="51"/>
-    </row>
-    <row r="55" spans="1:29" s="52" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC54" s="51" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="55">
         <v>54</v>
       </c>
       <c r="B55" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="C55" s="44">
+      <c r="C55" s="122">
         <v>71382237</v>
       </c>
       <c r="D55" s="43" t="s">
@@ -10209,16 +10580,18 @@
       <c r="AB55" s="88" t="s">
         <v>308</v>
       </c>
-      <c r="AC55" s="51"/>
-    </row>
-    <row r="56" spans="1:29" s="52" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC55" s="51" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="55">
         <v>55</v>
       </c>
       <c r="B56" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="44">
+      <c r="C56" s="122">
         <v>8161159</v>
       </c>
       <c r="D56" s="43" t="s">
@@ -10258,16 +10631,18 @@
       <c r="AB56" s="88" t="s">
         <v>309</v>
       </c>
-      <c r="AC56" s="51"/>
-    </row>
-    <row r="57" spans="1:29" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC56" s="51" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="55">
         <v>56</v>
       </c>
       <c r="B57" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="C57" s="91">
+      <c r="C57" s="123">
         <v>71646315</v>
       </c>
       <c r="D57" s="90" t="s">
@@ -10276,25 +10651,25 @@
       <c r="E57" s="89">
         <v>3022657909</v>
       </c>
-      <c r="F57" s="92" t="s">
+      <c r="F57" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="G57" s="92" t="str">
+      <c r="G57" s="91" t="str">
         <f>+VLOOKUP(C57,[1]USUSARIOS!$B$1:I94,8,FALSE)</f>
         <v>mantenimiento1.pae2022@gmail.com</v>
       </c>
-      <c r="H57" s="92"/>
-      <c r="I57" s="92"/>
-      <c r="J57" s="92"/>
-      <c r="K57" s="92"/>
-      <c r="L57" s="92"/>
-      <c r="M57" s="92"/>
-      <c r="N57" s="92"/>
-      <c r="O57" s="92"/>
-      <c r="P57" s="92"/>
-      <c r="Q57" s="92"/>
-      <c r="R57" s="92"/>
-      <c r="S57" s="92"/>
+      <c r="H57" s="91"/>
+      <c r="I57" s="91"/>
+      <c r="J57" s="91"/>
+      <c r="K57" s="91"/>
+      <c r="L57" s="91"/>
+      <c r="M57" s="91"/>
+      <c r="N57" s="91"/>
+      <c r="O57" s="91"/>
+      <c r="P57" s="91"/>
+      <c r="Q57" s="91"/>
+      <c r="R57" s="91"/>
+      <c r="S57" s="91"/>
       <c r="T57" s="89" t="s">
         <v>10</v>
       </c>
@@ -10310,16 +10685,18 @@
       <c r="AB57" s="88" t="s">
         <v>310</v>
       </c>
-      <c r="AC57" s="51"/>
-    </row>
-    <row r="58" spans="1:29" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC57" s="51" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="55">
         <v>57</v>
       </c>
       <c r="B58" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="C58" s="91">
+      <c r="C58" s="123">
         <v>98644732</v>
       </c>
       <c r="D58" s="90" t="s">
@@ -10328,25 +10705,25 @@
       <c r="E58" s="89">
         <v>3124191412</v>
       </c>
-      <c r="F58" s="92" t="s">
+      <c r="F58" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="G58" s="92" t="str">
+      <c r="G58" s="91" t="str">
         <f>+VLOOKUP(C58,[1]USUSARIOS!$B$1:I95,8,FALSE)</f>
         <v>mantenimiento2.pae2022@gmail.com</v>
       </c>
-      <c r="H58" s="92"/>
-      <c r="I58" s="92"/>
-      <c r="J58" s="92"/>
-      <c r="K58" s="92"/>
-      <c r="L58" s="92"/>
-      <c r="M58" s="92"/>
-      <c r="N58" s="92"/>
-      <c r="O58" s="92"/>
-      <c r="P58" s="92"/>
-      <c r="Q58" s="92"/>
-      <c r="R58" s="92"/>
-      <c r="S58" s="92"/>
+      <c r="H58" s="91"/>
+      <c r="I58" s="91"/>
+      <c r="J58" s="91"/>
+      <c r="K58" s="91"/>
+      <c r="L58" s="91"/>
+      <c r="M58" s="91"/>
+      <c r="N58" s="91"/>
+      <c r="O58" s="91"/>
+      <c r="P58" s="91"/>
+      <c r="Q58" s="91"/>
+      <c r="R58" s="91"/>
+      <c r="S58" s="91"/>
       <c r="T58" s="89" t="s">
         <v>16</v>
       </c>
@@ -10362,16 +10739,18 @@
       <c r="AB58" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="AC58" s="51"/>
-    </row>
-    <row r="59" spans="1:29" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC58" s="51" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" s="52" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="55">
         <v>58</v>
       </c>
-      <c r="B59" s="93" t="s">
+      <c r="B59" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="C59" s="91">
+      <c r="C59" s="123">
         <v>71759329</v>
       </c>
       <c r="D59" s="90" t="s">
@@ -10380,25 +10759,25 @@
       <c r="E59" s="89">
         <v>3104560000</v>
       </c>
-      <c r="F59" s="92" t="s">
+      <c r="F59" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="G59" s="92" t="str">
+      <c r="G59" s="91" t="str">
         <f>+VLOOKUP(C59,[1]USUSARIOS!$B$1:I96,8,FALSE)</f>
         <v>mantenimiento3.pae2022@gmail.com</v>
       </c>
-      <c r="H59" s="92"/>
-      <c r="I59" s="92"/>
-      <c r="J59" s="92"/>
-      <c r="K59" s="92"/>
-      <c r="L59" s="92"/>
-      <c r="M59" s="92"/>
-      <c r="N59" s="92"/>
-      <c r="O59" s="92"/>
-      <c r="P59" s="92"/>
-      <c r="Q59" s="92"/>
-      <c r="R59" s="92"/>
-      <c r="S59" s="92"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="91"/>
+      <c r="K59" s="91"/>
+      <c r="L59" s="91"/>
+      <c r="M59" s="91"/>
+      <c r="N59" s="91"/>
+      <c r="O59" s="91"/>
+      <c r="P59" s="91"/>
+      <c r="Q59" s="91"/>
+      <c r="R59" s="91"/>
+      <c r="S59" s="91"/>
       <c r="T59" s="89" t="s">
         <v>16</v>
       </c>
@@ -10418,171 +10797,180 @@
       <c r="AB59" s="88" t="s">
         <v>312</v>
       </c>
-      <c r="AC59" s="51"/>
-    </row>
-    <row r="60" spans="1:29" s="97" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC59" s="51" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" s="96" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="55">
         <v>59</v>
       </c>
-      <c r="B60" s="99" t="s">
+      <c r="B60" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="C60" s="100">
+      <c r="C60" s="124">
         <v>71750686</v>
       </c>
-      <c r="D60" s="99" t="s">
+      <c r="D60" s="98" t="s">
         <v>172</v>
       </c>
-      <c r="E60" s="98">
+      <c r="E60" s="97">
         <v>3136130422</v>
       </c>
-      <c r="F60" s="101" t="s">
+      <c r="F60" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="G60" s="101" t="str">
+      <c r="G60" s="99" t="str">
         <f>+VLOOKUP(C60,[1]USUSARIOS!$B$1:I101,8,FALSE)</f>
         <v>tsistemas2.pae2022@gmail.com</v>
       </c>
-      <c r="H60" s="101"/>
-      <c r="I60" s="101"/>
-      <c r="J60" s="101"/>
-      <c r="K60" s="101"/>
-      <c r="L60" s="101"/>
-      <c r="M60" s="101"/>
-      <c r="N60" s="101"/>
-      <c r="O60" s="101"/>
-      <c r="P60" s="101"/>
-      <c r="Q60" s="101"/>
-      <c r="R60" s="101"/>
-      <c r="S60" s="101"/>
-      <c r="T60" s="98" t="s">
+      <c r="H60" s="99"/>
+      <c r="I60" s="99"/>
+      <c r="J60" s="99"/>
+      <c r="K60" s="99"/>
+      <c r="L60" s="99"/>
+      <c r="M60" s="99"/>
+      <c r="N60" s="99"/>
+      <c r="O60" s="99"/>
+      <c r="P60" s="99"/>
+      <c r="Q60" s="99"/>
+      <c r="R60" s="99"/>
+      <c r="S60" s="99"/>
+      <c r="T60" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="U60" s="94"/>
-      <c r="V60" s="95">
-        <v>44748</v>
-      </c>
-      <c r="W60" s="94"/>
-      <c r="X60" s="94"/>
-      <c r="Y60" s="94"/>
-      <c r="Z60" s="94"/>
-      <c r="AA60" s="94"/>
-      <c r="AB60" s="104" t="s">
+      <c r="U60" s="93"/>
+      <c r="V60" s="94">
+        <v>44748</v>
+      </c>
+      <c r="W60" s="93"/>
+      <c r="X60" s="93"/>
+      <c r="Y60" s="93"/>
+      <c r="Z60" s="93"/>
+      <c r="AA60" s="93"/>
+      <c r="AB60" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="AC60" s="96"/>
-    </row>
-    <row r="61" spans="1:29" s="97" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC60" s="95" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" s="96" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="55">
         <v>60</v>
       </c>
-      <c r="B61" s="105" t="s">
+      <c r="B61" s="103" t="s">
         <v>315</v>
       </c>
-      <c r="C61" s="100">
+      <c r="C61" s="124">
         <v>36754134</v>
       </c>
-      <c r="D61" s="99" t="s">
+      <c r="D61" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="E61" s="98">
+      <c r="E61" s="97">
         <v>3137912896</v>
       </c>
-      <c r="F61" s="102" t="s">
+      <c r="F61" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="G61" s="101" t="str">
+      <c r="G61" s="99" t="str">
         <f>+VLOOKUP(C61,[1]USUSARIOS!$B$1:I35,8,FALSE)</f>
         <v>sistemas1.pae2022@gmail.com</v>
       </c>
-      <c r="H61" s="101"/>
-      <c r="I61" s="101"/>
-      <c r="J61" s="101"/>
-      <c r="K61" s="101"/>
-      <c r="L61" s="101"/>
-      <c r="M61" s="101"/>
-      <c r="N61" s="101"/>
-      <c r="O61" s="101"/>
-      <c r="P61" s="101"/>
-      <c r="Q61" s="101"/>
-      <c r="R61" s="101"/>
-      <c r="S61" s="101"/>
-      <c r="T61" s="98" t="s">
+      <c r="H61" s="99"/>
+      <c r="I61" s="99"/>
+      <c r="J61" s="99"/>
+      <c r="K61" s="99"/>
+      <c r="L61" s="99"/>
+      <c r="M61" s="99"/>
+      <c r="N61" s="99"/>
+      <c r="O61" s="99"/>
+      <c r="P61" s="99"/>
+      <c r="Q61" s="99"/>
+      <c r="R61" s="99"/>
+      <c r="S61" s="99"/>
+      <c r="T61" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="U61" s="94"/>
-      <c r="V61" s="95">
-        <v>44748</v>
-      </c>
-      <c r="W61" s="94"/>
-      <c r="X61" s="94"/>
-      <c r="Y61" s="94"/>
-      <c r="Z61" s="94"/>
-      <c r="AA61" s="94"/>
-      <c r="AB61" s="104" t="s">
+      <c r="U61" s="93"/>
+      <c r="V61" s="94">
+        <v>44748</v>
+      </c>
+      <c r="W61" s="93"/>
+      <c r="X61" s="93"/>
+      <c r="Y61" s="93"/>
+      <c r="Z61" s="93"/>
+      <c r="AA61" s="93"/>
+      <c r="AB61" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="AC61" s="96"/>
-    </row>
-    <row r="62" spans="1:29" s="97" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AC61" s="95" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" s="96" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="55">
         <v>61</v>
       </c>
-      <c r="B62" s="99" t="s">
+      <c r="B62" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="C62" s="100">
+      <c r="C62" s="124">
         <v>1033650704</v>
       </c>
-      <c r="D62" s="99" t="s">
+      <c r="D62" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="E62" s="98">
+      <c r="E62" s="97">
         <v>3213406394</v>
       </c>
-      <c r="F62" s="101" t="s">
+      <c r="F62" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="G62" s="101" t="str">
+      <c r="G62" s="99" t="str">
         <f>+VLOOKUP(C62,[1]USUSARIOS!$B$1:I93,8,FALSE)</f>
         <v>gdocumental.pae2022@gmail.com</v>
       </c>
-      <c r="H62" s="101"/>
-      <c r="I62" s="101"/>
-      <c r="J62" s="101"/>
-      <c r="K62" s="101"/>
-      <c r="L62" s="101"/>
-      <c r="M62" s="101"/>
-      <c r="N62" s="101"/>
-      <c r="O62" s="101"/>
-      <c r="P62" s="101"/>
-      <c r="Q62" s="101"/>
-      <c r="R62" s="101"/>
-      <c r="S62" s="101"/>
-      <c r="T62" s="98" t="s">
+      <c r="H62" s="99"/>
+      <c r="I62" s="99"/>
+      <c r="J62" s="99"/>
+      <c r="K62" s="99"/>
+      <c r="L62" s="99"/>
+      <c r="M62" s="99"/>
+      <c r="N62" s="99"/>
+      <c r="O62" s="99"/>
+      <c r="P62" s="99"/>
+      <c r="Q62" s="99"/>
+      <c r="R62" s="99"/>
+      <c r="S62" s="99"/>
+      <c r="T62" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="U62" s="94"/>
-      <c r="V62" s="95">
-        <v>44748</v>
-      </c>
-      <c r="W62" s="94"/>
-      <c r="X62" s="94"/>
-      <c r="Y62" s="94"/>
-      <c r="Z62" s="94"/>
-      <c r="AA62" s="94"/>
-      <c r="AB62" s="104" t="s">
+      <c r="U62" s="93"/>
+      <c r="V62" s="94">
+        <v>44748</v>
+      </c>
+      <c r="W62" s="93"/>
+      <c r="X62" s="93"/>
+      <c r="Y62" s="93"/>
+      <c r="Z62" s="93"/>
+      <c r="AA62" s="93"/>
+      <c r="AB62" s="102" t="s">
         <v>314</v>
       </c>
-      <c r="AC62" s="96"/>
+      <c r="AC62" s="95" t="s">
+        <v>359</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC60" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AC60"/>
   <hyperlinks>
-    <hyperlink ref="F61" r:id="rId1" xr:uid="{7673BD74-E0A3-49C5-A9FD-9FA0352EFAAF}"/>
-    <hyperlink ref="F40" r:id="rId2" xr:uid="{427C4476-9B6D-413B-9FDF-B549BBE206B0}"/>
+    <hyperlink ref="F61" r:id="rId1"/>
+    <hyperlink ref="F40" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>